--- a/biology/Médecine/André_Meyer_(médecin)/André_Meyer_(médecin).xlsx
+++ b/biology/Médecine/André_Meyer_(médecin)/André_Meyer_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Meyer_(m%C3%A9decin)</t>
+          <t>André_Meyer_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Meyer, né le 27 avril 1903 à Paris et mort le 5 septembre 1979[1] à Vaucresson[2], est un médecin et professeur de médecine français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Meyer, né le 27 avril 1903 à Paris et mort le 5 septembre 1979 à Vaucresson, est un médecin et professeur de médecine français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Meyer_(m%C3%A9decin)</t>
+          <t>André_Meyer_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Maurice Meyer et d'Anna Wellhoff.
 Interne en 1928, médecin des hôpitaux de Paris, il est ensuite chef de service de phtisiologie à l'hôpital Boucicaut. Il est nommé professeur à la Faculté de médecine de Paris en 1963 et membre de l'Académie nationale de médecine.
-Le Professeur André Meyer prend part à la lutte contre la tuberculose en France et contribue à l'essor de la phtisiologie en France par ses travaux[3] de recherche clinique[4].
+Le Professeur André Meyer prend part à la lutte contre la tuberculose en France et contribue à l'essor de la phtisiologie en France par ses travaux de recherche clinique.
 Il est le père du Professeur Philippe Meyer et de Jean-Claude Meyer.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Meyer_(m%C3%A9decin)</t>
+          <t>André_Meyer_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions et décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur (1953)[réf. nécessaire].</t>
         </is>
